--- a/report/report_call.xlsx
+++ b/report/report_call.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work_IT\study\analysis_data\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BF93F-2F73-493F-8671-706748D69810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0A716-55AA-41E6-8025-D293B85B9E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="4185" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
